--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>角度是反的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta t ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain db</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,6 +130,1808 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.86130796150481181"/>
+          <c:h val="0.89351851851851849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.99999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F4-41DB-B4C3-A66042D543C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1929789536"/>
+        <c:axId val="1929789952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1929789536"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1929789952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1929789952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1929789536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>32.914489847655872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.914489847655872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.586681523892487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.914489847655872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.749039328336082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.914489847655872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.135446490831278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.135446490831278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.614103455549845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B73B-4AE9-8B39-FB3A6CBC4D1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1929784960"/>
+        <c:axId val="1929786208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1929784960"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1929786208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1929786208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1929784960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -391,12 +2209,12 @@
     <col min="7" max="7" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -404,6 +2222,9 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
@@ -413,8 +2234,14 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -427,6 +2254,10 @@
       <c r="D2">
         <v>9.1999999999999993</v>
       </c>
+      <c r="E2">
+        <f>D2/C2 * 1000</f>
+        <v>44.230769230769226</v>
+      </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
@@ -442,8 +2273,16 @@
       <c r="J2">
         <v>18.8</v>
       </c>
+      <c r="L2">
+        <f xml:space="preserve"> 360-B2 / 1000 * A2 * 360</f>
+        <v>180</v>
+      </c>
+      <c r="M2">
+        <f>LOG10(E2) * 20</f>
+        <v>32.914489847655872</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -456,6 +2295,10 @@
       <c r="D3">
         <v>9.1999999999999993</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">D3/C3 * 1000</f>
+        <v>44.230769230769226</v>
+      </c>
       <c r="H3">
         <v>25.4</v>
       </c>
@@ -465,8 +2308,16 @@
       <c r="J3">
         <v>18.8</v>
       </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L10" si="1" xml:space="preserve"> 360-B3 / 1000 * A3 * 360</f>
+        <v>178.56</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M10" si="2">LOG10(E3) * 20</f>
+        <v>32.914489847655872</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50</v>
       </c>
@@ -479,6 +2330,10 @@
       <c r="D4">
         <v>9.1999999999999993</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>42.592592592592588</v>
+      </c>
       <c r="H4">
         <v>10.1</v>
       </c>
@@ -488,8 +2343,16 @@
       <c r="J4">
         <v>18.8</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>183.6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>32.586681523892487</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -502,6 +2365,10 @@
       <c r="D5">
         <v>9.1999999999999993</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>44.230769230769226</v>
+      </c>
       <c r="H5">
         <v>5.08</v>
       </c>
@@ -511,8 +2378,16 @@
       <c r="J5">
         <v>18.8</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>174.24</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>32.914489847655872</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>200</v>
       </c>
@@ -525,6 +2400,10 @@
       <c r="D6">
         <v>9.1999999999999993</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>43.39622641509434</v>
+      </c>
       <c r="H6">
         <v>2.52</v>
       </c>
@@ -534,8 +2413,16 @@
       <c r="J6">
         <v>18.8</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>178.56</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>32.749039328336082</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -548,6 +2435,10 @@
       <c r="D7">
         <v>9.1999999999999993</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>44.230769230769226</v>
+      </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
@@ -560,13 +2451,21 @@
       <c r="J7">
         <v>18.8</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>32.914489847655872</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1000</v>
       </c>
       <c r="B8">
-        <v>512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C8">
         <v>216</v>
@@ -574,6 +2473,10 @@
       <c r="D8">
         <v>9.8000000000000007</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>45.370370370370374</v>
+      </c>
       <c r="H8">
         <v>512</v>
       </c>
@@ -583,13 +2486,21 @@
       <c r="J8">
         <v>20</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>175.68</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>33.135446490831278</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2000</v>
       </c>
       <c r="B9">
-        <v>260</v>
+        <v>0.26</v>
       </c>
       <c r="C9">
         <v>216</v>
@@ -597,6 +2508,10 @@
       <c r="D9">
         <v>9.8000000000000007</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>45.370370370370374</v>
+      </c>
       <c r="H9">
         <v>270</v>
       </c>
@@ -606,13 +2521,21 @@
       <c r="J9">
         <v>19.600000000000001</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>33.135446490831278</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>0.11</v>
       </c>
       <c r="C10">
         <v>220</v>
@@ -620,6 +2543,10 @@
       <c r="D10">
         <v>9.4</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>42.727272727272734</v>
+      </c>
       <c r="H10">
         <v>119</v>
       </c>
@@ -628,11 +2555,20 @@
       </c>
       <c r="J10">
         <v>17.600000000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>161.99999999999997</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>32.614103455549845</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,26 @@
   </si>
   <si>
     <t>gain db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain2 db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta t ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,17 +168,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.9247594050743664E-2"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.86130796150481181"/>
-          <c:h val="0.89351851851851849"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -225,36 +235,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$10</c:f>
+              <c:f>Sheet1!$T$2:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>-9.0023604067421843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178.56</c:v>
+                  <c:v>-4.8280457198407065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.6</c:v>
+                  <c:v>-1.69578760664406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>174.24</c:v>
+                  <c:v>-0.93337833760591771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>178.56</c:v>
+                  <c:v>-0.57588386221183163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>-0.57588386221183163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175.68</c:v>
+                  <c:v>-0.65585026792614975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172.79999999999998</c:v>
+                  <c:v>-0.73445614049479702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161.99999999999997</c:v>
+                  <c:v>-0.73445614049479702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,7 +272,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77F4-41DB-B4C3-A66042D543C2}"/>
+              <c16:uniqueId val="{00000000-E064-4711-BBB9-9A2E5FA9448D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -274,11 +284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1929789536"/>
-        <c:axId val="1929789952"/>
+        <c:axId val="1516087904"/>
+        <c:axId val="1516090816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1929789536"/>
+        <c:axId val="1516087904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -302,7 +312,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -336,16 +346,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929789952"/>
+        <c:crossAx val="1516090816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1929789952"/>
+        <c:axId val="1516090816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="360"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -400,10 +408,9 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929789536"/>
+        <c:crossAx val="1516087904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="30"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -533,36 +540,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$10</c:f>
+              <c:f>Sheet1!$U$2:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>32.914489847655872</c:v>
+                  <c:v>119.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.914489847655872</c:v>
+                  <c:v>132.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.586681523892487</c:v>
+                  <c:v>158.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.914489847655872</c:v>
+                  <c:v>168.48000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.749039328336082</c:v>
+                  <c:v>187.20000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.914489847655872</c:v>
+                  <c:v>174.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.135446490831278</c:v>
+                  <c:v>178.56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.135446490831278</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.614103455549845</c:v>
+                  <c:v>176.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,7 +577,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B73B-4AE9-8B39-FB3A6CBC4D1A}"/>
+              <c16:uniqueId val="{00000000-DA82-4B55-A99B-21988087DE47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -582,11 +589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1929784960"/>
-        <c:axId val="1929786208"/>
+        <c:axId val="1453803696"/>
+        <c:axId val="1453805360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1929784960"/>
+        <c:axId val="1453803696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -644,16 +651,16 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929786208"/>
+        <c:crossAx val="1453805360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1929786208"/>
+        <c:axId val="1453805360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="20"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -708,9 +715,10 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929784960"/>
+        <c:crossAx val="1453803696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1874,19 +1882,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>1724024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1903,20 +1911,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1495424</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2197,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2209,7 +2217,7 @@
     <col min="7" max="7" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2234,14 +2242,38 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
       <c r="L1" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2273,6 +2305,10 @@
       <c r="J2">
         <v>18.8</v>
       </c>
+      <c r="K2">
+        <f>J2/I2 * 1000</f>
+        <v>87.037037037037038</v>
+      </c>
       <c r="L2">
         <f xml:space="preserve"> 360-B2 / 1000 * A2 * 360</f>
         <v>180</v>
@@ -2281,8 +2317,33 @@
         <f>LOG10(E2) * 20</f>
         <v>32.914489847655872</v>
       </c>
+      <c r="N2">
+        <f>360- H2 / 1000 * A2 * 360</f>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="O2">
+        <f>LOG10(K2)*20</f>
+        <v>38.794081962254978</v>
+      </c>
+      <c r="Q2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="R2">
+        <v>1060</v>
+      </c>
+      <c r="S2">
+        <v>0.376</v>
+      </c>
+      <c r="T2">
+        <f>LOG10(S2*1000/R2)*20</f>
+        <v>-9.0023604067421843</v>
+      </c>
+      <c r="U2">
+        <f>Q2 / 1000 * A2 * 360</f>
+        <v>119.52000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -2308,16 +2369,45 @@
       <c r="J3">
         <v>18.8</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">J3/I3 * 1000</f>
+        <v>87.037037037037038</v>
+      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L10" si="1" xml:space="preserve"> 360-B3 / 1000 * A3 * 360</f>
+        <f t="shared" ref="L3:L10" si="2" xml:space="preserve"> 360-B3 / 1000 * A3 * 360</f>
         <v>178.56</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M10" si="2">LOG10(E3) * 20</f>
+        <f t="shared" ref="M3:M10" si="3">LOG10(E3) * 20</f>
         <v>32.914489847655872</v>
       </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="4">360- H3 / 1000 * A3 * 360</f>
+        <v>177.12</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="5">LOG10(K3)*20</f>
+        <v>38.794081962254978</v>
+      </c>
+      <c r="Q3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="R3">
+        <v>1060</v>
+      </c>
+      <c r="S3">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="6">LOG10(S3*1000/R3)*20</f>
+        <v>-4.8280457198407065</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U10" si="7">Q3 / 1000 * A3 * 360</f>
+        <v>132.47999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50</v>
       </c>
@@ -2343,16 +2433,45 @@
       <c r="J4">
         <v>18.8</v>
       </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>88.679245283018872</v>
+      </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183.6</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.586681523892487</v>
       </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>178.2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>38.956439766698566</v>
+      </c>
+      <c r="Q4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R4">
+        <v>1060</v>
+      </c>
+      <c r="S4">
+        <v>0.872</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="6"/>
+        <v>-1.69578760664406</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="7"/>
+        <v>158.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -2378,16 +2497,45 @@
       <c r="J5">
         <v>18.8</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>88.679245283018872</v>
+      </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.24</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.914489847655872</v>
       </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>177.12</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>38.956439766698566</v>
+      </c>
+      <c r="Q5">
+        <v>4.68</v>
+      </c>
+      <c r="R5">
+        <v>1060</v>
+      </c>
+      <c r="S5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>-0.93337833760591771</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="7"/>
+        <v>168.48000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>200</v>
       </c>
@@ -2413,16 +2561,45 @@
       <c r="J6">
         <v>18.8</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>88.679245283018872</v>
+      </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178.56</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.749039328336082</v>
       </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>178.56</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>38.956439766698566</v>
+      </c>
+      <c r="Q6">
+        <v>2.6</v>
+      </c>
+      <c r="R6">
+        <v>1060</v>
+      </c>
+      <c r="S6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>-0.57588386221183163</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>187.20000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -2451,16 +2628,45 @@
       <c r="J7">
         <v>18.8</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>88.679245283018872</v>
+      </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.914489847655872</v>
       </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>174.6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>38.956439766698566</v>
+      </c>
+      <c r="Q7">
+        <v>0.97</v>
+      </c>
+      <c r="R7">
+        <v>1060</v>
+      </c>
+      <c r="S7">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>-0.57588386221183163</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>174.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -2478,7 +2684,7 @@
         <v>45.370370370370374</v>
       </c>
       <c r="H8">
-        <v>512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="I8">
         <v>216</v>
@@ -2486,16 +2692,45 @@
       <c r="J8">
         <v>20</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>92.592592592592581</v>
+      </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175.68</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.135446490831278</v>
       </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>175.68</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>39.331524890261008</v>
+      </c>
+      <c r="Q8">
+        <v>0.496</v>
+      </c>
+      <c r="R8">
+        <v>1100</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>-0.65585026792614975</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>178.56</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -2513,7 +2748,7 @@
         <v>45.370370370370374</v>
       </c>
       <c r="H9">
-        <v>270</v>
+        <v>0.27</v>
       </c>
       <c r="I9">
         <v>220</v>
@@ -2521,16 +2756,45 @@
       <c r="J9">
         <v>19.600000000000001</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>89.090909090909093</v>
+      </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172.79999999999998</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.135446490831278</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>165.6</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>38.996667810685395</v>
+      </c>
+      <c r="Q9">
+        <v>0.25</v>
+      </c>
+      <c r="R9">
+        <v>1110</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>-0.73445614049479702</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5000</v>
       </c>
@@ -2548,7 +2812,7 @@
         <v>42.727272727272734</v>
       </c>
       <c r="H10">
-        <v>119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="I10">
         <v>224</v>
@@ -2556,13 +2820,42 @@
       <c r="J10">
         <v>17.600000000000001</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>78.571428571428584</v>
+      </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161.99999999999997</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.614103455549845</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>37.905292989599744</v>
+      </c>
+      <c r="Q10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="R10">
+        <v>1110</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>-0.73445614049479702</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>176.4</v>
       </c>
     </row>
   </sheetData>
